--- a/medicine/Premiers secours et secourisme/Société_suisse_de_sauvetage/Société_suisse_de_sauvetage.xlsx
+++ b/medicine/Premiers secours et secourisme/Société_suisse_de_sauvetage/Société_suisse_de_sauvetage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_suisse_de_sauvetage</t>
+          <t>Société_suisse_de_sauvetage</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société Suisse de Sauvetage SSS (en allemand Schweizerische Lebensrettungs-Gesellschaft SIRG, en italien Società Svizzera di Salvataggio SSS, en romanche Societad Svizra da Salvament SSS) est une organisation suisse de prévention des accidents aquatiques, de sauvetage et de formation de nageurs sauveteurs. Organisation à but non lucratif reconnue d’utilité publique, la SSS est formée de 27 500 membres répartis dans 127 sections.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_suisse_de_sauvetage</t>
+          <t>Société_suisse_de_sauvetage</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_suisse_de_sauvetage</t>
+          <t>Société_suisse_de_sauvetage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,22 +551,24 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La société suisse de sauvetage comprend environ 127 sections réparties dans toute la Suisse. Ces associations indépendantes et sans but lucratif sont divisées en six régions[1]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La société suisse de sauvetage comprend environ 127 sections réparties dans toute la Suisse. Ces associations indépendantes et sans but lucratif sont divisées en six régions:
 SLRG Région Nord-Ouest: 27 sections
 SLRG Région Est: 18 sections
 SLRG Région Centre : 13 sections
 SLRG Région Zurich : 26 sections
 SSS Région Romande : 32 sections
 SSS Région Sud : 14 sections
-Les représentants des régions et des sections de la SSS, ainsi que les représentants des membres collectifs qui ont également le droit de vote, constituent l'organe suprême de l'association nationale lors de la réunion annuelle des délégués[1].
-La SSS est membre des organisations faîtières suivantes[2]:
+Les représentants des régions et des sections de la SSS, ainsi que les représentants des membres collectifs qui ont également le droit de vote, constituent l'organe suprême de l'association nationale lors de la réunion annuelle des délégués.
+La SSS est membre des organisations faîtières suivantes:
 Croix-Rouge suisse (CRS)
 Swiss Olympic
 Jeunesse et Sport (J+S)
 International Life Saving Federation (ILSF)
-La SLRG est reconnue par la fondation ZEWO comme une organisation à but non lucratif[1].
+La SLRG est reconnue par la fondation ZEWO comme une organisation à but non lucratif.
 Membres collectifs
 Les organisations partenaires actives dans la formation des sauveteurs dans toute la Suisse sont acceptées par la SSS en tant que membre collectif. Ceux-ci incluent les organisations suivantes :
 Armée suisse
@@ -560,7 +576,7 @@
 Écoles de police)
 Association suisses des maîtres de bain (AMB)
 Conseil Central
-Le conseil d'administration est formé par le président, le vice-président, les représentants des six régions SSS ainsi que des départements individuels et comprend généralement une dizaine de membres. Les résolutions adoptées par la réunion des délégués sont développées par le conseil d'administration à un niveau stratégique. De plus, le conseil d'administration est responsable de la sélection du chef de l'exploitation ainsi que des membres des groupes de spécialistes[3].
+Le conseil d'administration est formé par le président, le vice-président, les représentants des six régions SSS ainsi que des départements individuels et comprend généralement une dizaine de membres. Les résolutions adoptées par la réunion des délégués sont développées par le conseil d'administration à un niveau stratégique. De plus, le conseil d'administration est responsable de la sélection du chef de l'exploitation ainsi que des membres des groupes de spécialistes.
 Siège administratif
 Le siège administratif, situé à Sursee dans le canton de Lucerne, s'occupe des tâches opérationnelles au sein de l'association. Il est sous la direction du directeur général et de la direction, qui est formée 3-4 employés du bureau. Les fonctions du bureau comprennent:
 le développement et le maintien de l'offre de formation,
@@ -581,7 +597,7 @@
 Sécurité
 Formation des cadres
 Fondation St-Christophe
-La Fondation St-Christophe rend hommage à des membres de la SSS mais aussi à des profanes qui ont effectué un sauvetage dans des situations périlleuses dans et autour de l'eau. Ils sont honorés par une lettre de remerciement, un diplôme ou une remise des médailles d'honneur. Le conseil d'administration est composé de représentants des six régions de la SSS et du président de la Fondation St-Christophe[4].
+La Fondation St-Christophe rend hommage à des membres de la SSS mais aussi à des profanes qui ont effectué un sauvetage dans des situations périlleuses dans et autour de l'eau. Ils sont honorés par une lettre de remerciement, un diplôme ou une remise des médailles d'honneur. Le conseil d'administration est composé de représentants des six régions de la SSS et du président de la Fondation St-Christophe.
 </t>
         </is>
       </c>
@@ -592,7 +608,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_suisse_de_sauvetage</t>
+          <t>Société_suisse_de_sauvetage</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -610,9 +626,11 @@
           <t>Statistiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chaque année la SSS publie sous forme d'une communiqué de presse les statistiques de noyades de l'année précédente[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque année la SSS publie sous forme d'une communiqué de presse les statistiques de noyades de l'année précédente.
 </t>
         </is>
       </c>
@@ -623,7 +641,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_suisse_de_sauvetage</t>
+          <t>Société_suisse_de_sauvetage</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -643,13 +661,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nord-Ouest
-Est
-Romandie
-SSS Nord Vaudois
-Sud
-Central
-Zurich</t>
+          <t>Romandie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SSS Nord Vaudois</t>
         </is>
       </c>
     </row>
